--- a/mbs-perturbation/chain/MLP/nearmiss/chain-mlp-nearmiss-results.xlsx
+++ b/mbs-perturbation/chain/MLP/nearmiss/chain-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8653061224489796</v>
+        <v>0.7903780068728522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9217391304347826</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8926315789473683</v>
+        <v>0.8829174664107486</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9595708639186901</v>
+        <v>0.9441652550348202</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9094488188976378</v>
+        <v>0.9314516129032258</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9525773195876288</v>
+        <v>0.964509394572025</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9967061923583664</v>
+        <v>0.9985507246376811</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9437229437229437</v>
+        <v>0.9163346613545816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9478260869565217</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9457700650759218</v>
+        <v>0.9563409563409563</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9631852551984877</v>
+        <v>0.97703213610586</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.9745762711864406</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9739130434782609</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9871244635193133</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9975236294896029</v>
+        <v>0.9989224952741022</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.995575221238938</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.986842105263158</v>
+        <v>0.9978308026030369</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997920604914935</v>
+        <v>0.9992816635160681</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9359140695375621</v>
+        <v>0.9216823095976192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9643478260869566</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9495036077142093</v>
+        <v>0.9577446166892158</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9833556002913282</v>
+        <v>0.9835904549137062</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chain/MLP/nearmiss/chain-mlp-nearmiss-results.xlsx
+++ b/mbs-perturbation/chain/MLP/nearmiss/chain-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7903780068728522</v>
+        <v>0.6287625418060201</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8829174664107486</v>
+        <v>0.7565392354124749</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9441652550348202</v>
+        <v>0.8745918783797573</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9314516129032258</v>
+        <v>0.9842105263157894</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="D3" t="n">
-        <v>0.964509394572025</v>
+        <v>0.9639175257731959</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9985507246376811</v>
+        <v>0.9933680236710538</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9163346613545816</v>
+        <v>0.9068627450980392</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9343434343434344</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9563409563409563</v>
+        <v>0.9203980099502487</v>
       </c>
       <c r="E4" t="n">
-        <v>0.97703213610586</v>
+        <v>0.9825528007346189</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9745762711864406</v>
+        <v>0.9587628865979382</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9489795918367346</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9989224952741022</v>
+        <v>0.9961288006973287</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9956709956709957</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9035532994923858</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9978308026030369</v>
+        <v>0.9493333333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9992816635160681</v>
+        <v>0.9988719684151156</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9216823095976192</v>
+        <v>0.8957197399635575</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9342460134338306</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9577446166892158</v>
+        <v>0.9078335392611976</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9835904549137062</v>
+        <v>0.9691026943795749</v>
       </c>
     </row>
   </sheetData>
